--- a/src/main/resources/excel/GaiNianResource.xlsx
+++ b/src/main/resources/excel/GaiNianResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\richguy\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1162536E-A074-4924-B344-1242F7CBAFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D919C27-45F7-4557-894B-11CABA869C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>青叔语录，大a就喜欢炒概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>青叔语录，新题材是否发酵，是否需要跟风新题材</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,6 +93,10 @@
   </si>
   <si>
     <t>新概念经过一年的验证了，准确率80%，按照概率统计非常高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青叔语录，大a就喜欢炒概念，有新题材，坚决抛弃旧题材</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -456,7 +456,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -487,7 +487,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -523,7 +523,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -535,7 +535,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -571,7 +571,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -667,7 +667,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -679,7 +679,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
